--- a/results_final/ei_LM.xlsx
+++ b/results_final/ei_LM.xlsx
@@ -611,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.560826639597812</v>
+        <v>1.560826639597811</v>
       </c>
       <c r="C3">
         <v>1.242580578481868</v>
@@ -620,88 +620,88 @@
         <v>1.02364405829409</v>
       </c>
       <c r="E3">
-        <v>0.8681598903973754</v>
+        <v>0.868159890397375</v>
       </c>
       <c r="F3">
-        <v>0.7547147754345717</v>
+        <v>0.7547147754345712</v>
       </c>
       <c r="G3">
-        <v>0.6700211584700378</v>
+        <v>0.6700211584700374</v>
       </c>
       <c r="H3">
-        <v>0.6055476633214771</v>
+        <v>0.6055476633214767</v>
       </c>
       <c r="I3">
-        <v>0.5556472580015474</v>
+        <v>0.5556472580015468</v>
       </c>
       <c r="J3">
-        <v>0.5164786719978384</v>
+        <v>0.5164786719978378</v>
       </c>
       <c r="K3">
-        <v>0.4853640725959484</v>
+        <v>0.4853640725959478</v>
       </c>
       <c r="L3">
-        <v>0.4603949750869387</v>
+        <v>0.4603949750869381</v>
       </c>
       <c r="M3">
-        <v>0.4401838266138434</v>
+        <v>0.4401838266138428</v>
       </c>
       <c r="N3">
-        <v>0.4237035103379881</v>
+        <v>0.4237035103379875</v>
       </c>
       <c r="O3">
-        <v>0.4101812890666082</v>
+        <v>0.4101812890666076</v>
       </c>
       <c r="P3">
-        <v>0.3990272559117022</v>
+        <v>0.3990272559117016</v>
       </c>
       <c r="Q3">
-        <v>0.3897851327356458</v>
+        <v>0.3897851327356452</v>
       </c>
       <c r="R3">
-        <v>0.3820978310362538</v>
+        <v>0.3820978310362532</v>
       </c>
       <c r="S3">
-        <v>0.3756829447254593</v>
+        <v>0.3756829447254588</v>
       </c>
       <c r="T3">
-        <v>0.3703150395044521</v>
+        <v>0.3703150395044515</v>
       </c>
       <c r="U3">
-        <v>0.365812667707362</v>
+        <v>0.3658126677073614</v>
       </c>
       <c r="V3">
-        <v>0.3620287179120859</v>
+        <v>0.3620287179120853</v>
       </c>
       <c r="W3">
-        <v>0.3588431511666746</v>
+        <v>0.358843151166674</v>
       </c>
       <c r="X3">
-        <v>0.356157468111816</v>
+        <v>0.3561574681118154</v>
       </c>
       <c r="Y3">
-        <v>0.353890447387198</v>
+        <v>0.3538904473871975</v>
       </c>
       <c r="Z3">
-        <v>0.3519748290440539</v>
+        <v>0.3519748290440533</v>
       </c>
       <c r="AA3">
-        <v>0.3503547085187987</v>
+        <v>0.3503547085187981</v>
       </c>
       <c r="AB3">
-        <v>0.348983470744937</v>
+        <v>0.3489834707449365</v>
       </c>
       <c r="AC3">
-        <v>0.3478221391314003</v>
+        <v>0.3478221391313997</v>
       </c>
       <c r="AD3">
-        <v>0.3468380463293267</v>
+        <v>0.3468380463293262</v>
       </c>
       <c r="AE3">
-        <v>0.3460037569076403</v>
+        <v>0.3460037569076397</v>
       </c>
       <c r="AF3">
-        <v>0.3452961889452374</v>
+        <v>0.3452961889452369</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -914,31 +914,31 @@
         <v>1.159030138338954</v>
       </c>
       <c r="E6">
-        <v>0.791399434714898</v>
+        <v>0.7913994347148983</v>
       </c>
       <c r="F6">
-        <v>0.5722049248222928</v>
+        <v>0.572204924822293</v>
       </c>
       <c r="G6">
-        <v>0.4343442420841654</v>
+        <v>0.4343442420841656</v>
       </c>
       <c r="H6">
-        <v>0.3436166300963715</v>
+        <v>0.3436166300963717</v>
       </c>
       <c r="I6">
-        <v>0.2815647376910032</v>
+        <v>0.2815647376910034</v>
       </c>
       <c r="J6">
-        <v>0.2377150840804188</v>
+        <v>0.2377150840804189</v>
       </c>
       <c r="K6">
-        <v>0.2058559600455816</v>
+        <v>0.2058559600455817</v>
       </c>
       <c r="L6">
-        <v>0.1821562783535776</v>
+        <v>0.1821562783535777</v>
       </c>
       <c r="M6">
-        <v>0.1641695995721358</v>
+        <v>0.1641695995721359</v>
       </c>
       <c r="N6">
         <v>0.1502844492323236</v>
@@ -947,55 +947,55 @@
         <v>0.1394094306139398</v>
       </c>
       <c r="P6">
-        <v>0.1307866893294528</v>
+        <v>0.1307866893294529</v>
       </c>
       <c r="Q6">
-        <v>0.1238780129299248</v>
+        <v>0.1238780129299249</v>
       </c>
       <c r="R6">
-        <v>0.1182933447994218</v>
+        <v>0.1182933447994219</v>
       </c>
       <c r="S6">
-        <v>0.113744781572417</v>
+        <v>0.1137447815724171</v>
       </c>
       <c r="T6">
         <v>0.1100162847867533</v>
       </c>
       <c r="U6">
-        <v>0.106943315620263</v>
+        <v>0.1069433156202631</v>
       </c>
       <c r="V6">
-        <v>0.10439887384174</v>
+        <v>0.1043988738417401</v>
       </c>
       <c r="W6">
-        <v>0.1022837537119813</v>
+        <v>0.1022837537119814</v>
       </c>
       <c r="X6">
         <v>0.1005196285635361</v>
       </c>
       <c r="Y6">
-        <v>0.09904406576331742</v>
+        <v>0.09904406576331749</v>
       </c>
       <c r="Z6">
-        <v>0.09780688034895162</v>
+        <v>0.09780688034895169</v>
       </c>
       <c r="AA6">
-        <v>0.09676743107654012</v>
+        <v>0.09676743107654019</v>
       </c>
       <c r="AB6">
-        <v>0.09589258938499647</v>
+        <v>0.09589258938499653</v>
       </c>
       <c r="AC6">
-        <v>0.0951551953335498</v>
+        <v>0.09515519533354987</v>
       </c>
       <c r="AD6">
-        <v>0.09453287046512973</v>
+        <v>0.0945328704651298</v>
       </c>
       <c r="AE6">
-        <v>0.09400709546740109</v>
+        <v>0.09400709546740116</v>
       </c>
       <c r="AF6">
-        <v>0.09356248656462984</v>
+        <v>0.09356248656462991</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1199,7 +1199,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.127814202433856</v>
+        <v>2.127814202433855</v>
       </c>
       <c r="C9">
         <v>1.564657177444222</v>
@@ -1208,13 +1208,13 @@
         <v>1.204846903975</v>
       </c>
       <c r="E9">
-        <v>0.9648674040431787</v>
+        <v>0.9648674040431788</v>
       </c>
       <c r="F9">
-        <v>0.7988643458024837</v>
+        <v>0.7988643458024838</v>
       </c>
       <c r="G9">
-        <v>0.6804208789280322</v>
+        <v>0.6804208789280323</v>
       </c>
       <c r="H9">
         <v>0.5936582885287049</v>
@@ -1300,94 +1300,94 @@
         <v>1.411902709128922</v>
       </c>
       <c r="C10">
-        <v>0.9678782929456792</v>
+        <v>0.9678782929456786</v>
       </c>
       <c r="D10">
-        <v>0.7021571642522066</v>
+        <v>0.7021571642522058</v>
       </c>
       <c r="E10">
-        <v>0.534510050469601</v>
+        <v>0.5345100504696001</v>
       </c>
       <c r="F10">
-        <v>0.4238861125966141</v>
+        <v>0.4238861125966131</v>
       </c>
       <c r="G10">
-        <v>0.3480555026165718</v>
+        <v>0.3480555026165709</v>
       </c>
       <c r="H10">
-        <v>0.2943661871423031</v>
+        <v>0.2943661871423022</v>
       </c>
       <c r="I10">
-        <v>0.2552944821589101</v>
+        <v>0.2552944821589093</v>
       </c>
       <c r="J10">
-        <v>0.2261892226425355</v>
+        <v>0.2261892226425348</v>
       </c>
       <c r="K10">
-        <v>0.2040740652212888</v>
+        <v>0.204074065221288</v>
       </c>
       <c r="L10">
-        <v>0.1869848143579523</v>
+        <v>0.1869848143579516</v>
       </c>
       <c r="M10">
-        <v>0.17358895187796</v>
+        <v>0.1735889518779593</v>
       </c>
       <c r="N10">
-        <v>0.1629597924301452</v>
+        <v>0.1629597924301446</v>
       </c>
       <c r="O10">
-        <v>0.1544383266695846</v>
+        <v>0.154438326669584</v>
       </c>
       <c r="P10">
-        <v>0.1475463662886168</v>
+        <v>0.1475463662886161</v>
       </c>
       <c r="Q10">
-        <v>0.1419305659814998</v>
+        <v>0.1419305659814992</v>
       </c>
       <c r="R10">
-        <v>0.1373255156542235</v>
+        <v>0.1373255156542229</v>
       </c>
       <c r="S10">
-        <v>0.1335288924336726</v>
+        <v>0.1335288924336721</v>
       </c>
       <c r="T10">
-        <v>0.130384406285712</v>
+        <v>0.1303844062857114</v>
       </c>
       <c r="U10">
-        <v>0.1277698837690583</v>
+        <v>0.1277698837690577</v>
       </c>
       <c r="V10">
-        <v>0.1255888023184364</v>
+        <v>0.1255888023184358</v>
       </c>
       <c r="W10">
-        <v>0.1237641817805558</v>
+        <v>0.1237641817805553</v>
       </c>
       <c r="X10">
-        <v>0.1222341122699517</v>
+        <v>0.1222341122699511</v>
       </c>
       <c r="Y10">
-        <v>0.1209484350500918</v>
+        <v>0.1209484350500912</v>
       </c>
       <c r="Z10">
-        <v>0.119866247442111</v>
+        <v>0.1198662474421104</v>
       </c>
       <c r="AA10">
-        <v>0.1189540045599043</v>
+        <v>0.1189540045599038</v>
       </c>
       <c r="AB10">
-        <v>0.1181840588350415</v>
+        <v>0.1181840588350409</v>
       </c>
       <c r="AC10">
-        <v>0.1175335245766438</v>
+        <v>0.1175335245766433</v>
       </c>
       <c r="AD10">
-        <v>0.116983386646033</v>
+        <v>0.1169833866460324</v>
       </c>
       <c r="AE10">
-        <v>0.1165177944927449</v>
+        <v>0.1165177944927443</v>
       </c>
       <c r="AF10">
-        <v>0.1161234984132021</v>
+        <v>0.1161234984132015</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1404,10 +1404,10 @@
         <v>1.25594788885382</v>
       </c>
       <c r="E11">
-        <v>1.169577146259851</v>
+        <v>1.16957714625985</v>
       </c>
       <c r="F11">
-        <v>1.100848458892436</v>
+        <v>1.100848458892435</v>
       </c>
       <c r="G11">
         <v>1.045614035533341</v>
@@ -1416,76 +1416,76 @@
         <v>1.000849300339585</v>
       </c>
       <c r="I11">
-        <v>0.9643093610796174</v>
+        <v>0.9643093610796168</v>
       </c>
       <c r="J11">
-        <v>0.9343012321724345</v>
+        <v>0.934301232172434</v>
       </c>
       <c r="K11">
-        <v>0.9095296884182077</v>
+        <v>0.9095296884182071</v>
       </c>
       <c r="L11">
-        <v>0.8889909585202781</v>
+        <v>0.8889909585202775</v>
       </c>
       <c r="M11">
-        <v>0.8718981149077297</v>
+        <v>0.8718981149077292</v>
       </c>
       <c r="N11">
-        <v>0.8576278473062269</v>
+        <v>0.8576278473062263</v>
       </c>
       <c r="O11">
-        <v>0.8456819073975</v>
+        <v>0.8456819073974995</v>
       </c>
       <c r="P11">
-        <v>0.8356587784802403</v>
+        <v>0.8356587784802397</v>
       </c>
       <c r="Q11">
-        <v>0.8272325773178641</v>
+        <v>0.8272325773178636</v>
       </c>
       <c r="R11">
-        <v>0.8201371430089215</v>
+        <v>0.8201371430089209</v>
       </c>
       <c r="S11">
-        <v>0.81415389541639</v>
+        <v>0.8141538954163895</v>
       </c>
       <c r="T11">
-        <v>0.809102467575042</v>
+        <v>0.8091024675750415</v>
       </c>
       <c r="U11">
-        <v>0.8048334039374857</v>
+        <v>0.8048334039374851</v>
       </c>
       <c r="V11">
-        <v>0.8012224146810127</v>
+        <v>0.8012224146810121</v>
       </c>
       <c r="W11">
-        <v>0.7981658148447863</v>
+        <v>0.7981658148447855</v>
       </c>
       <c r="X11">
-        <v>0.7955768749486561</v>
+        <v>0.7955768749486554</v>
       </c>
       <c r="Y11">
-        <v>0.7933828796552964</v>
+        <v>0.7933828796552956</v>
       </c>
       <c r="Z11">
-        <v>0.7915227414957701</v>
+        <v>0.7915227414957693</v>
       </c>
       <c r="AA11">
-        <v>0.7899450534683652</v>
+        <v>0.7899450534683644</v>
       </c>
       <c r="AB11">
-        <v>0.7886064914099628</v>
+        <v>0.788606491409962</v>
       </c>
       <c r="AC11">
-        <v>0.7874704971787774</v>
+        <v>0.7874704971787766</v>
       </c>
       <c r="AD11">
-        <v>0.7865061888016872</v>
+        <v>0.7865061888016864</v>
       </c>
       <c r="AE11">
-        <v>0.7856874551874404</v>
+        <v>0.7856874551874397</v>
       </c>
       <c r="AF11">
-        <v>0.7849922017566054</v>
+        <v>0.7849922017566047</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1499,91 +1499,91 @@
         <v>2.071510060701156</v>
       </c>
       <c r="D12">
-        <v>1.80603108353609</v>
+        <v>1.806031083536089</v>
       </c>
       <c r="E12">
-        <v>1.607302678319546</v>
+        <v>1.607302678319545</v>
       </c>
       <c r="F12">
-        <v>1.455674415215697</v>
+        <v>1.455674415215696</v>
       </c>
       <c r="G12">
-        <v>1.338091593998529</v>
+        <v>1.338091593998528</v>
       </c>
       <c r="H12">
-        <v>1.245644735513808</v>
+        <v>1.245644735513807</v>
       </c>
       <c r="I12">
         <v>1.172104405189109</v>
       </c>
       <c r="J12">
-        <v>1.113019015823449</v>
+        <v>1.113019015823448</v>
       </c>
       <c r="K12">
-        <v>1.06514425052301</v>
+        <v>1.065144250523009</v>
       </c>
       <c r="L12">
-        <v>1.026073317517312</v>
+        <v>1.026073317517311</v>
       </c>
       <c r="M12">
-        <v>0.9939919469155939</v>
+        <v>0.9939919469155932</v>
       </c>
       <c r="N12">
-        <v>0.9675126829253393</v>
+        <v>0.9675126829253387</v>
       </c>
       <c r="O12">
-        <v>0.9455606654280116</v>
+        <v>0.9455606654280109</v>
       </c>
       <c r="P12">
-        <v>0.9272935069327591</v>
+        <v>0.9272935069327584</v>
       </c>
       <c r="Q12">
-        <v>0.9120441599557043</v>
+        <v>0.9120441599557036</v>
       </c>
       <c r="R12">
-        <v>0.8992795502356901</v>
+        <v>0.8992795502356894</v>
       </c>
       <c r="S12">
-        <v>0.888570192995913</v>
+        <v>0.8885701929959122</v>
       </c>
       <c r="T12">
-        <v>0.8795675742743604</v>
+        <v>0.8795675742743595</v>
       </c>
       <c r="U12">
-        <v>0.8719870992397909</v>
+        <v>0.87198709923979</v>
       </c>
       <c r="V12">
-        <v>0.8655950846611179</v>
+        <v>0.865595084661117</v>
       </c>
       <c r="W12">
-        <v>0.8601987263511973</v>
+        <v>0.8601987263511965</v>
       </c>
       <c r="X12">
-        <v>0.8556382813729562</v>
+        <v>0.8556382813729554</v>
       </c>
       <c r="Y12">
-        <v>0.8517809179338272</v>
+        <v>0.8517809179338264</v>
       </c>
       <c r="Z12">
-        <v>0.8485158347110684</v>
+        <v>0.8485158347110676</v>
       </c>
       <c r="AA12">
-        <v>0.8457503564527061</v>
+        <v>0.8457503564527054</v>
       </c>
       <c r="AB12">
-        <v>0.8434067877426101</v>
+        <v>0.8434067877426094</v>
       </c>
       <c r="AC12">
-        <v>0.8414198609651924</v>
+        <v>0.8414198609651916</v>
       </c>
       <c r="AD12">
-        <v>0.8397346539726868</v>
+        <v>0.839734653972686</v>
       </c>
       <c r="AE12">
-        <v>0.8383048820107203</v>
+        <v>0.8383048820107195</v>
       </c>
       <c r="AF12">
-        <v>0.8370914900510361</v>
+        <v>0.8370914900510353</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1597,91 +1597,91 @@
         <v>1.335384803242596</v>
       </c>
       <c r="D13">
-        <v>1.370981647856103</v>
+        <v>1.370981647856102</v>
       </c>
       <c r="E13">
-        <v>1.401984044907979</v>
+        <v>1.401984044907977</v>
       </c>
       <c r="F13">
-        <v>1.428886676322271</v>
+        <v>1.428886676322269</v>
       </c>
       <c r="G13">
-        <v>1.452159414565637</v>
+        <v>1.452159414565635</v>
       </c>
       <c r="H13">
-        <v>1.472239029027346</v>
+        <v>1.472239029027343</v>
       </c>
       <c r="I13">
-        <v>1.489524852681634</v>
+        <v>1.489524852681631</v>
       </c>
       <c r="J13">
-        <v>1.504377283553969</v>
+        <v>1.504377283553966</v>
       </c>
       <c r="K13">
-        <v>1.517118233459418</v>
+        <v>1.517118233459415</v>
       </c>
       <c r="L13">
-        <v>1.528032846376873</v>
+        <v>1.528032846376869</v>
       </c>
       <c r="M13">
-        <v>1.537371983954749</v>
+        <v>1.537371983954745</v>
       </c>
       <c r="N13">
-        <v>1.545355116034133</v>
+        <v>1.545355116034129</v>
       </c>
       <c r="O13">
-        <v>1.55217336315117</v>
+        <v>1.552173363151166</v>
       </c>
       <c r="P13">
-        <v>1.557992520532321</v>
+        <v>1.557992520532317</v>
       </c>
       <c r="Q13">
-        <v>1.562955954116139</v>
+        <v>1.562955954116135</v>
       </c>
       <c r="R13">
-        <v>1.567187303219665</v>
+        <v>1.56718730321966</v>
       </c>
       <c r="S13">
-        <v>1.570792955562553</v>
+        <v>1.570792955562548</v>
       </c>
       <c r="T13">
-        <v>1.573864281704555</v>
+        <v>1.573864281704551</v>
       </c>
       <c r="U13">
-        <v>1.576479630111683</v>
+        <v>1.576479630111678</v>
       </c>
       <c r="V13">
-        <v>1.578706093033011</v>
+        <v>1.578706093033006</v>
       </c>
       <c r="W13">
-        <v>1.580601058653355</v>
+        <v>1.58060105865335</v>
       </c>
       <c r="X13">
-        <v>1.582213567712573</v>
+        <v>1.582213567712568</v>
       </c>
       <c r="Y13">
-        <v>1.583585493776314</v>
+        <v>1.583585493776309</v>
       </c>
       <c r="Z13">
-        <v>1.584752566202949</v>
+        <v>1.584752566202944</v>
       </c>
       <c r="AA13">
-        <v>1.585745254002325</v>
+        <v>1.58574525400232</v>
       </c>
       <c r="AB13">
-        <v>1.58658952752158</v>
+        <v>1.586589527521575</v>
       </c>
       <c r="AC13">
-        <v>1.587307513425535</v>
+        <v>1.58730751342553</v>
       </c>
       <c r="AD13">
-        <v>1.587918056901059</v>
+        <v>1.587918056901054</v>
       </c>
       <c r="AE13">
-        <v>1.588437203494674</v>
+        <v>1.588437203494669</v>
       </c>
       <c r="AF13">
-        <v>1.588878611545225</v>
+        <v>1.58887861154522</v>
       </c>
     </row>
   </sheetData>
